--- a/Resultados/no_elemento_a_danar_5.xlsx
+++ b/Resultados/no_elemento_a_danar_5.xlsx
@@ -53,18 +53,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="true"/>
+    <col min="1" max="1" width="4.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>102</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/no_elemento_a_danar_5.xlsx
+++ b/Resultados/no_elemento_a_danar_5.xlsx
@@ -64,22 +64,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">

--- a/Resultados/no_elemento_a_danar_5.xlsx
+++ b/Resultados/no_elemento_a_danar_5.xlsx
@@ -64,12 +64,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
